--- a/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_nrs.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_nrs.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>134.5461359977722</v>
+        <v>112.8140721321106</v>
       </c>
       <c r="C2">
-        <v>2.031270747979965</v>
+        <v>1.151494228068786</v>
       </c>
       <c r="D2">
-        <v>1.111035108566284</v>
+        <v>1.034724760055542</v>
       </c>
       <c r="E2">
-        <v>0.01104996372280927</v>
+        <v>0.02641201518394986</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,25 +558,25 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7441077441077442</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="K2">
-        <v>0.7777777777777778</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L2">
-        <v>0.7702702702702703</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="M2">
-        <v>0.7601351351351351</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="N2">
-        <v>0.7297297297297297</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="O2">
-        <v>0.7564041314041314</v>
+        <v>0.7385124568103292</v>
       </c>
       <c r="P2">
-        <v>0.01746853056459859</v>
+        <v>0.0184077530919213</v>
       </c>
       <c r="Q2">
         <v>16</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>259.7599253177643</v>
+        <v>222.0525091648102</v>
       </c>
       <c r="C3">
-        <v>1.099514111730697</v>
+        <v>1.048401361047337</v>
       </c>
       <c r="D3">
-        <v>1.144846534729004</v>
+        <v>1.07569899559021</v>
       </c>
       <c r="E3">
-        <v>0.03750823327806515</v>
+        <v>0.05819221593704209</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,25 +611,25 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.7710437710437711</v>
+        <v>0.7829787234042553</v>
       </c>
       <c r="K3">
-        <v>0.8148148148148148</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="L3">
-        <v>0.7837837837837838</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="M3">
-        <v>0.8243243243243243</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="N3">
-        <v>0.7702702702702703</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="O3">
-        <v>0.7928473928473929</v>
+        <v>0.7666230223677032</v>
       </c>
       <c r="P3">
-        <v>0.02254168689328257</v>
+        <v>0.01361457305897402</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>518.3089710235596</v>
+        <v>440.5179897785187</v>
       </c>
       <c r="C4">
-        <v>1.202774573163918</v>
+        <v>1.958768132014467</v>
       </c>
       <c r="D4">
-        <v>1.20201735496521</v>
+        <v>1.081076097488403</v>
       </c>
       <c r="E4">
-        <v>0.06980085522856037</v>
+        <v>0.0515729379102302</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,28 +664,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.7912457912457912</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.8451178451178452</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>0.8243243243243243</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="M4">
-        <v>0.8378378378378378</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N4">
-        <v>0.8141891891891891</v>
+        <v>0.8418803418803419</v>
       </c>
       <c r="O4">
-        <v>0.8225429975429975</v>
+        <v>0.8126313875250044</v>
       </c>
       <c r="P4">
-        <v>0.01895273196030692</v>
+        <v>0.01543764176129924</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>133.4322480201721</v>
+        <v>113.4469215393066</v>
       </c>
       <c r="C5">
-        <v>0.5810197893489165</v>
+        <v>1.167578068962321</v>
       </c>
       <c r="D5">
-        <v>1.298998641967773</v>
+        <v>1.108101654052734</v>
       </c>
       <c r="E5">
-        <v>0.202217113843719</v>
+        <v>0.111818747880678</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,25 +717,25 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7441077441077442</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L5">
-        <v>0.7702702702702703</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="M5">
-        <v>0.7601351351351351</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="N5">
-        <v>0.7297297297297297</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="O5">
-        <v>0.7564041314041314</v>
+        <v>0.7385124568103292</v>
       </c>
       <c r="P5">
-        <v>0.01746853056459859</v>
+        <v>0.0184077530919213</v>
       </c>
       <c r="Q5">
         <v>16</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>263.1733146667481</v>
+        <v>222.7793167591095</v>
       </c>
       <c r="C6">
-        <v>2.906760039415673</v>
+        <v>1.667646333996571</v>
       </c>
       <c r="D6">
-        <v>1.143793773651123</v>
+        <v>1.202676725387573</v>
       </c>
       <c r="E6">
-        <v>0.01985431871433891</v>
+        <v>0.1552925794604522</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,25 +770,25 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.7710437710437711</v>
+        <v>0.7829787234042553</v>
       </c>
       <c r="K6">
-        <v>0.8148148148148148</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="L6">
-        <v>0.7837837837837838</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="M6">
-        <v>0.8243243243243243</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="N6">
-        <v>0.7702702702702703</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="O6">
-        <v>0.7928473928473929</v>
+        <v>0.7666230223677032</v>
       </c>
       <c r="P6">
-        <v>0.02254168689328257</v>
+        <v>0.01361457305897402</v>
       </c>
       <c r="Q6">
         <v>13</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>524.1169357299805</v>
+        <v>444.4782149791718</v>
       </c>
       <c r="C7">
-        <v>1.377041750502543</v>
+        <v>1.370579460449444</v>
       </c>
       <c r="D7">
-        <v>1.191808462142944</v>
+        <v>1.176820468902588</v>
       </c>
       <c r="E7">
-        <v>0.03252210166982768</v>
+        <v>0.1242808122385996</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,28 +823,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7912457912457912</v>
+        <v>0.8</v>
       </c>
       <c r="K7">
-        <v>0.8451178451178452</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>0.8243243243243243</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="M7">
-        <v>0.8378378378378378</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N7">
-        <v>0.8141891891891891</v>
+        <v>0.8418803418803419</v>
       </c>
       <c r="O7">
-        <v>0.8225429975429975</v>
+        <v>0.8126313875250044</v>
       </c>
       <c r="P7">
-        <v>0.01895273196030692</v>
+        <v>0.01543764176129924</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>134.8995561599731</v>
+        <v>115.6096325874329</v>
       </c>
       <c r="C8">
-        <v>0.3526615988900761</v>
+        <v>0.9964905168043321</v>
       </c>
       <c r="D8">
-        <v>1.235186910629273</v>
+        <v>1.091544628143311</v>
       </c>
       <c r="E8">
-        <v>0.1379254343356768</v>
+        <v>0.07620130726905652</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,25 +876,25 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7441077441077442</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="K8">
-        <v>0.7777777777777778</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L8">
-        <v>0.7702702702702703</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="M8">
-        <v>0.7601351351351351</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="N8">
-        <v>0.7297297297297297</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="O8">
-        <v>0.7564041314041314</v>
+        <v>0.7385124568103292</v>
       </c>
       <c r="P8">
-        <v>0.01746853056459859</v>
+        <v>0.0184077530919213</v>
       </c>
       <c r="Q8">
         <v>16</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>261.6134257316589</v>
+        <v>224.1770779132843</v>
       </c>
       <c r="C9">
-        <v>0.9704456912491088</v>
+        <v>0.9579008126353754</v>
       </c>
       <c r="D9">
-        <v>1.243911981582642</v>
+        <v>1.134570121765137</v>
       </c>
       <c r="E9">
-        <v>0.1630539624286152</v>
+        <v>0.06490457096109295</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,25 +929,25 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.7710437710437711</v>
+        <v>0.7829787234042553</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="L9">
-        <v>0.7837837837837838</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="M9">
-        <v>0.8243243243243243</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="N9">
-        <v>0.7702702702702703</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="O9">
-        <v>0.7928473928473929</v>
+        <v>0.7666230223677032</v>
       </c>
       <c r="P9">
-        <v>0.02254168689328257</v>
+        <v>0.01361457305897402</v>
       </c>
       <c r="Q9">
         <v>13</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>515.5032777786255</v>
+        <v>442.4488591194153</v>
       </c>
       <c r="C10">
-        <v>2.514023303313443</v>
+        <v>2.209128231185954</v>
       </c>
       <c r="D10">
-        <v>1.306507873535156</v>
+        <v>1.133418369293213</v>
       </c>
       <c r="E10">
-        <v>0.1453594898371565</v>
+        <v>0.1197213124887748</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,28 +982,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7912457912457912</v>
+        <v>0.8</v>
       </c>
       <c r="K10">
-        <v>0.8451178451178452</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>0.8243243243243243</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="M10">
-        <v>0.8378378378378378</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N10">
-        <v>0.8141891891891891</v>
+        <v>0.8418803418803419</v>
       </c>
       <c r="O10">
-        <v>0.8225429975429975</v>
+        <v>0.8126313875250044</v>
       </c>
       <c r="P10">
-        <v>0.01895273196030692</v>
+        <v>0.01543764176129924</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>212.6151601791382</v>
+        <v>178.8798421859741</v>
       </c>
       <c r="C11">
-        <v>1.575453620726624</v>
+        <v>0.4307670391946885</v>
       </c>
       <c r="D11">
-        <v>1.19510931968689</v>
+        <v>1.134435510635376</v>
       </c>
       <c r="E11">
-        <v>0.08016816409442094</v>
+        <v>0.1216022443007243</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,28 +1035,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.8080808080808081</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L11">
-        <v>0.847972972972973</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="M11">
-        <v>0.8547297297297297</v>
+        <v>0.8212765957446808</v>
       </c>
       <c r="N11">
-        <v>0.8277027027027027</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O11">
-        <v>0.838067613067613</v>
+        <v>0.8100709219858157</v>
       </c>
       <c r="P11">
-        <v>0.01773351271218937</v>
+        <v>0.01584848535995849</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>416.7833588123322</v>
+        <v>345.8915525913238</v>
       </c>
       <c r="C12">
-        <v>1.875790122372882</v>
+        <v>0.7469578292970765</v>
       </c>
       <c r="D12">
-        <v>1.145868539810181</v>
+        <v>1.080759525299072</v>
       </c>
       <c r="E12">
-        <v>0.01047131426886038</v>
+        <v>0.07770711176241575</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8249158249158249</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="K12">
-        <v>0.8653198653198653</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="L12">
-        <v>0.8885135135135135</v>
+        <v>0.8212765957446808</v>
       </c>
       <c r="M12">
-        <v>0.8445945945945946</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N12">
-        <v>0.8412162162162162</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="O12">
-        <v>0.852912002912003</v>
+        <v>0.8203055100927441</v>
       </c>
       <c r="P12">
-        <v>0.02195986929190348</v>
+        <v>0.02015970987797284</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>826.5317065238953</v>
+        <v>674.1369040966034</v>
       </c>
       <c r="C13">
-        <v>5.822232642046989</v>
+        <v>1.613823345030307</v>
       </c>
       <c r="D13">
-        <v>1.221588325500488</v>
+        <v>1.177210712432861</v>
       </c>
       <c r="E13">
-        <v>0.1801972583775905</v>
+        <v>0.221941187905537</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1141,25 +1141,25 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8249158249158249</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K13">
-        <v>0.8686868686868687</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="L13">
-        <v>0.875</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="M13">
-        <v>0.8614864864864865</v>
+        <v>0.8340425531914893</v>
       </c>
       <c r="N13">
-        <v>0.8547297297297297</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O13">
-        <v>0.8569637819637819</v>
+        <v>0.8228550645571922</v>
       </c>
       <c r="P13">
-        <v>0.01740835040949529</v>
+        <v>0.0211064123596872</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>213.0282444953918</v>
+        <v>176.3877244472504</v>
       </c>
       <c r="C14">
-        <v>1.201353694194053</v>
+        <v>0.5784019296200071</v>
       </c>
       <c r="D14">
-        <v>1.192617797851562</v>
+        <v>1.152410888671875</v>
       </c>
       <c r="E14">
-        <v>0.08997493530030587</v>
+        <v>0.1182071519540338</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,28 +1194,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8080808080808081</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="K14">
-        <v>0.8518518518518519</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>0.847972972972973</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="M14">
-        <v>0.8547297297297297</v>
+        <v>0.8212765957446808</v>
       </c>
       <c r="N14">
-        <v>0.8277027027027027</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O14">
-        <v>0.838067613067613</v>
+        <v>0.8100709219858157</v>
       </c>
       <c r="P14">
-        <v>0.01773351271218937</v>
+        <v>0.01584848535995849</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>437.9049416542053</v>
+        <v>346.1172390937805</v>
       </c>
       <c r="C15">
-        <v>12.34054100386113</v>
+        <v>0.8531804618472837</v>
       </c>
       <c r="D15">
-        <v>1.491717624664307</v>
+        <v>1.12978663444519</v>
       </c>
       <c r="E15">
-        <v>0.1679500516696011</v>
+        <v>0.1077581435039006</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1247,25 +1247,25 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8249158249158249</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="K15">
-        <v>0.8653198653198653</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="L15">
-        <v>0.8885135135135135</v>
+        <v>0.8212765957446808</v>
       </c>
       <c r="M15">
-        <v>0.8445945945945946</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N15">
-        <v>0.8412162162162162</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="O15">
-        <v>0.852912002912003</v>
+        <v>0.8203055100927441</v>
       </c>
       <c r="P15">
-        <v>0.02195986929190348</v>
+        <v>0.02015970987797284</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>934.263073015213</v>
+        <v>673.9129508972168</v>
       </c>
       <c r="C16">
-        <v>21.51550078131666</v>
+        <v>1.242048769936551</v>
       </c>
       <c r="D16">
-        <v>1.33515510559082</v>
+        <v>1.129365062713623</v>
       </c>
       <c r="E16">
-        <v>0.1788424573292273</v>
+        <v>0.1592003479618045</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1300,25 +1300,25 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8249158249158249</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K16">
-        <v>0.8686868686868687</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="L16">
-        <v>0.875</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="M16">
-        <v>0.8614864864864865</v>
+        <v>0.8340425531914893</v>
       </c>
       <c r="N16">
-        <v>0.8547297297297297</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O16">
-        <v>0.8569637819637819</v>
+        <v>0.8228550645571922</v>
       </c>
       <c r="P16">
-        <v>0.01740835040949529</v>
+        <v>0.0211064123596872</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>246.8479734897614</v>
+        <v>176.5527980327606</v>
       </c>
       <c r="C17">
-        <v>6.241350583306128</v>
+        <v>0.9598749726479374</v>
       </c>
       <c r="D17">
-        <v>1.330105781555176</v>
+        <v>1.24395604133606</v>
       </c>
       <c r="E17">
-        <v>0.1496542037149821</v>
+        <v>0.1544675446691934</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,28 +1353,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8080808080808081</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="K17">
-        <v>0.8518518518518519</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L17">
-        <v>0.847972972972973</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="M17">
-        <v>0.8547297297297297</v>
+        <v>0.8212765957446808</v>
       </c>
       <c r="N17">
-        <v>0.8277027027027027</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O17">
-        <v>0.838067613067613</v>
+        <v>0.8100709219858157</v>
       </c>
       <c r="P17">
-        <v>0.01773351271218937</v>
+        <v>0.01584848535995849</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>466.2642818450928</v>
+        <v>340.591864490509</v>
       </c>
       <c r="C18">
-        <v>13.14184710085847</v>
+        <v>6.641816336182635</v>
       </c>
       <c r="D18">
-        <v>1.402975940704346</v>
+        <v>0.9923890590667724</v>
       </c>
       <c r="E18">
-        <v>0.2478697205000935</v>
+        <v>0.0617189675840896</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1406,25 +1406,25 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8249158249158249</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="K18">
-        <v>0.8653198653198653</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="L18">
-        <v>0.8885135135135135</v>
+        <v>0.8212765957446808</v>
       </c>
       <c r="M18">
-        <v>0.8445945945945946</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N18">
-        <v>0.8412162162162162</v>
+        <v>0.8589743589743589</v>
       </c>
       <c r="O18">
-        <v>0.852912002912003</v>
+        <v>0.8203055100927441</v>
       </c>
       <c r="P18">
-        <v>0.02195986929190348</v>
+        <v>0.02015970987797284</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>821.660003900528</v>
+        <v>541.1166676044464</v>
       </c>
       <c r="C19">
-        <v>29.05394171420229</v>
+        <v>22.23276382955041</v>
       </c>
       <c r="D19">
-        <v>0.8904483795166016</v>
+        <v>0.7046218395233155</v>
       </c>
       <c r="E19">
-        <v>0.2245809563332799</v>
+        <v>0.168336572840162</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1459,25 +1459,25 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8249158249158249</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K19">
-        <v>0.8686868686868687</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="L19">
-        <v>0.875</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="M19">
-        <v>0.8614864864864865</v>
+        <v>0.8340425531914893</v>
       </c>
       <c r="N19">
-        <v>0.8547297297297297</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O19">
-        <v>0.8569637819637819</v>
+        <v>0.8228550645571922</v>
       </c>
       <c r="P19">
-        <v>0.01740835040949529</v>
+        <v>0.0211064123596872</v>
       </c>
       <c r="Q19">
         <v>1</v>
